--- a/medicine/Handicap/Journée_mondiale_du_braille/Journée_mondiale_du_braille.xlsx
+++ b/medicine/Handicap/Journée_mondiale_du_braille/Journée_mondiale_du_braille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_du_braille</t>
+          <t>Journée_mondiale_du_braille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Journée mondiale du braille est une journée internationale créée en 2001 par l'Union mondiale des aveugles pour célébrer la naissance de Louis Braille le 4 janvier 1809, inventeur de l'alphabet tactile dédié aux aveugles et mal-voyants, le braille[1].
+La Journée mondiale du braille est une journée internationale créée en 2001 par l'Union mondiale des aveugles pour célébrer la naissance de Louis Braille le 4 janvier 1809, inventeur de l'alphabet tactile dédié aux aveugles et mal-voyants, le braille.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_du_braille</t>
+          <t>Journée_mondiale_du_braille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette journée a pour objectifs d'attirer l'attention du grand public et des médias sur le handicap dont souffrent les aveugles et les mal-voyants, et de rappeler l'existence du braille.
 </t>
